--- a/Output dataset/Top3 artists withlink.xlsx
+++ b/Output dataset/Top3 artists withlink.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="40" windowWidth="28980" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="4540" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Bottrop (M�_nster district, North Rhine-Westphalia, Germany)</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=111174</t>
-  </si>
-  <si>
     <t>Lee, Edward B.</t>
   </si>
   <si>
@@ -150,18 +147,12 @@
     <t>Danish</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1011924</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rabbit </t>
   </si>
   <si>
     <t>Mills, Frederick P.</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1032188</t>
-  </si>
-  <si>
     <t>Hare, Clyde</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Belgian</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=110454</t>
-  </si>
-  <si>
     <t>Dragon</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>Philadelphia, PA</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1010538</t>
-  </si>
-  <si>
     <t>Bochner, Mel</t>
   </si>
   <si>
@@ -216,9 +201,6 @@
     <t>Kauffman, William</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1031698</t>
-  </si>
-  <si>
     <t>Hood, Samuel S.</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>Paris, France</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1009707</t>
-  </si>
-  <si>
     <t>Hassam, Childe</t>
   </si>
   <si>
@@ -297,9 +276,6 @@
     <t>Philadelphia (Philadelphia county, Pennsylvania, United States)</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1019637</t>
-  </si>
-  <si>
     <t>Leopold, Otto Gerhard</t>
   </si>
   <si>
@@ -312,9 +288,6 @@
     <t>Cook, Robert A.</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1003194</t>
-  </si>
-  <si>
     <t>Rooster</t>
   </si>
   <si>
@@ -384,9 +357,6 @@
     <t>Deane, Edward E.</t>
   </si>
   <si>
-    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1029595</t>
-  </si>
-  <si>
     <t>Year of Birth</t>
   </si>
   <si>
@@ -415,13 +385,43 @@
   </si>
   <si>
     <t>Zaandam, North Holland, Netherlands</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=3132</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1020340</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=14028</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1008934</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1018938</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1008980</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1002898</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1029638</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1003088</t>
+  </si>
+  <si>
+    <t>http://www.cmoa.org/CollectionDetail.aspx?item=1032220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,13 +436,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,14 +476,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -868,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="X1" t="s">
         <v>11</v>
@@ -900,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
       </c>
       <c r="N2">
         <v>72</v>
@@ -915,25 +952,25 @@
         <v>1876</v>
       </c>
       <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
         <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
       </c>
       <c r="T2">
         <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" s="1">
         <v>1852</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -941,28 +978,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
       </c>
       <c r="H3">
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>1757</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
       </c>
       <c r="N3">
         <v>58</v>
@@ -974,10 +1011,10 @@
         <v>1901</v>
       </c>
       <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
       </c>
       <c r="T3">
         <v>42</v>
@@ -990,7 +1027,7 @@
       </c>
       <c r="W3" s="1"/>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -998,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
       <c r="H4">
         <v>338</v>
@@ -1013,46 +1050,46 @@
         <v>1890</v>
       </c>
       <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
       <c r="N4">
         <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4">
         <v>1746</v>
       </c>
       <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
       </c>
       <c r="T4">
         <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" s="1">
         <v>1914</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1060,10 +1097,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H5" s="1">
         <v>224</v>
@@ -1076,10 +1113,10 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1">
         <v>142</v>
@@ -1091,28 +1128,28 @@
         <v>1927</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T5" s="1">
         <v>101</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V5" s="1">
         <v>1927</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="X5" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1120,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
         <v>128</v>
@@ -1135,13 +1172,13 @@
         <v>1904</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1">
         <v>70</v>
@@ -1153,28 +1190,28 @@
         <v>1940</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T6" s="1">
         <v>63</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="V6" s="1">
         <v>1592</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1182,10 +1219,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -1197,10 +1234,10 @@
         <v>1857</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="N7">
         <v>85</v>
@@ -1212,10 +1249,10 @@
         <v>1917</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T7">
         <v>77</v>
@@ -1227,10 +1264,10 @@
         <v>1905</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="X7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1238,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <v>571</v>
@@ -1253,13 +1290,13 @@
         <v>1918</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>125</v>
@@ -1271,28 +1308,28 @@
         <v>1834</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T8">
         <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="V8" s="1">
         <v>1606</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1300,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>95</v>
@@ -1315,31 +1352,31 @@
         <v>1883</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N9">
         <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P9">
         <v>1871</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T9">
         <v>83</v>
@@ -1351,10 +1388,10 @@
         <v>1859</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1362,10 +1399,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>626</v>
@@ -1377,13 +1414,13 @@
         <v>1896</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>203</v>
@@ -1395,13 +1432,13 @@
         <v>1824</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="T10">
         <v>141</v>
@@ -1414,7 +1451,7 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1422,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>87</v>
@@ -1437,10 +1474,10 @@
         <v>1885</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>81</v>
@@ -1452,13 +1489,13 @@
         <v>1885</v>
       </c>
       <c r="Q11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="T11">
         <v>57</v>
@@ -1471,7 +1508,7 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1479,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>221</v>
@@ -1494,46 +1531,46 @@
         <v>1970</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P12">
         <v>1598</v>
       </c>
       <c r="Q12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="T12">
         <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="V12" s="1">
         <v>1838</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="X12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1541,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H13">
         <v>77</v>
@@ -1556,13 +1593,13 @@
         <v>1899</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>73</v>
@@ -1574,27 +1611,28 @@
         <v>1923</v>
       </c>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="T13">
         <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V13" s="1">
         <v>1851</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Output dataset/Top3 artists withlink.xlsx
+++ b/Output dataset/Top3 artists withlink.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="4540" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,13 +544,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,14 +934,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1610,7 +1719,7 @@
       <c r="P13">
         <v>1923</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="S13" t="s">
